--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1201.777349666667</v>
+        <v>1.400677</v>
       </c>
       <c r="H2">
-        <v>3605.332049</v>
+        <v>4.202031</v>
       </c>
       <c r="I2">
-        <v>0.8719100374736847</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="J2">
-        <v>0.8719100374736846</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.161116666666667</v>
+        <v>0.009727666666666667</v>
       </c>
       <c r="N2">
-        <v>6.48335</v>
+        <v>0.029183</v>
       </c>
       <c r="O2">
-        <v>0.9584259542460944</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9584259542460944</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>2597.181059987127</v>
+        <v>0.01362531896366667</v>
       </c>
       <c r="R2">
-        <v>23374.62953988415</v>
+        <v>0.122627870673</v>
       </c>
       <c r="S2">
-        <v>0.8356612096824642</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="T2">
-        <v>0.835661209682464</v>
+        <v>0.009106128952548741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1201.777349666667</v>
+        <v>6.974902666666668</v>
       </c>
       <c r="H3">
-        <v>3605.332049</v>
+        <v>20.924708</v>
       </c>
       <c r="I3">
-        <v>0.8719100374736847</v>
+        <v>0.04534547444852937</v>
       </c>
       <c r="J3">
-        <v>0.8719100374736846</v>
+        <v>0.04534547444852936</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09374366666666667</v>
+        <v>0.009727666666666667</v>
       </c>
       <c r="N3">
-        <v>0.281231</v>
+        <v>0.029183</v>
       </c>
       <c r="O3">
-        <v>0.04157404575390553</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.04157404575390553</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>112.6590152747021</v>
+        <v>0.06784952817377779</v>
       </c>
       <c r="R3">
-        <v>1013.931137472319</v>
+        <v>0.6106457535640001</v>
       </c>
       <c r="S3">
-        <v>0.03624882779122045</v>
+        <v>0.04534547444852937</v>
       </c>
       <c r="T3">
-        <v>0.03624882779122045</v>
+        <v>0.04534547444852936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.974902666666666</v>
+        <v>1.381819666666667</v>
       </c>
       <c r="H4">
-        <v>20.924708</v>
+        <v>4.145459</v>
       </c>
       <c r="I4">
-        <v>0.005060411270985794</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="J4">
-        <v>0.005060411270985794</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.161116666666667</v>
+        <v>0.009727666666666667</v>
       </c>
       <c r="N4">
-        <v>6.48335</v>
+        <v>0.029183</v>
       </c>
       <c r="O4">
-        <v>0.9584259542460944</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9584259542460944</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>15.07357840131111</v>
+        <v>0.01344188111077778</v>
       </c>
       <c r="R4">
-        <v>135.6622056118</v>
+        <v>0.120976929997</v>
       </c>
       <c r="S4">
-        <v>0.004850029501272252</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="T4">
-        <v>0.004850029501272251</v>
+        <v>0.00898353301570211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.974902666666666</v>
+        <v>144.0595526666667</v>
       </c>
       <c r="H5">
-        <v>20.924708</v>
+        <v>432.178658</v>
       </c>
       <c r="I5">
-        <v>0.005060411270985794</v>
+        <v>0.9365648635832199</v>
       </c>
       <c r="J5">
-        <v>0.005060411270985794</v>
+        <v>0.9365648635832198</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09374366666666667</v>
+        <v>0.009727666666666667</v>
       </c>
       <c r="N5">
-        <v>0.281231</v>
+        <v>0.029183</v>
       </c>
       <c r="O5">
-        <v>0.04157404575390553</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.04157404575390553</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.6538529506164444</v>
+        <v>1.401363308490444</v>
       </c>
       <c r="R5">
-        <v>5.884676555548</v>
+        <v>12.612269776414</v>
       </c>
       <c r="S5">
-        <v>0.0002103817697135427</v>
+        <v>0.9365648635832199</v>
       </c>
       <c r="T5">
-        <v>0.0002103817697135426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.145949666666666</v>
-      </c>
-      <c r="H6">
-        <v>3.437848999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.0008314060978794657</v>
-      </c>
-      <c r="J6">
-        <v>0.0008314060978794656</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>2.161116666666667</v>
-      </c>
-      <c r="N6">
-        <v>6.48335</v>
-      </c>
-      <c r="O6">
-        <v>0.9584259542460944</v>
-      </c>
-      <c r="P6">
-        <v>0.9584259542460944</v>
-      </c>
-      <c r="Q6">
-        <v>2.476530923794444</v>
-      </c>
-      <c r="R6">
-        <v>22.28877831415</v>
-      </c>
-      <c r="S6">
-        <v>0.0007968411827261487</v>
-      </c>
-      <c r="T6">
-        <v>0.0007968411827261486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.145949666666666</v>
-      </c>
-      <c r="H7">
-        <v>3.437848999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.0008314060978794657</v>
-      </c>
-      <c r="J7">
-        <v>0.0008314060978794656</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.09374366666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.281231</v>
-      </c>
-      <c r="O7">
-        <v>0.04157404575390553</v>
-      </c>
-      <c r="P7">
-        <v>0.04157404575390553</v>
-      </c>
-      <c r="Q7">
-        <v>0.1074255235687778</v>
-      </c>
-      <c r="R7">
-        <v>0.9668297121189999</v>
-      </c>
-      <c r="S7">
-        <v>3.456491515331697E-05</v>
-      </c>
-      <c r="T7">
-        <v>3.456491515331697E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>168.4290313333333</v>
-      </c>
-      <c r="H8">
-        <v>505.287094</v>
-      </c>
-      <c r="I8">
-        <v>0.1221981451574502</v>
-      </c>
-      <c r="J8">
-        <v>0.1221981451574501</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>2.161116666666667</v>
-      </c>
-      <c r="N8">
-        <v>6.48335</v>
-      </c>
-      <c r="O8">
-        <v>0.9584259542460944</v>
-      </c>
-      <c r="P8">
-        <v>0.9584259542460944</v>
-      </c>
-      <c r="Q8">
-        <v>363.9947867649889</v>
-      </c>
-      <c r="R8">
-        <v>3275.9530808849</v>
-      </c>
-      <c r="S8">
-        <v>0.1171178738796319</v>
-      </c>
-      <c r="T8">
-        <v>0.1171178738796319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>168.4290313333333</v>
-      </c>
-      <c r="H9">
-        <v>505.287094</v>
-      </c>
-      <c r="I9">
-        <v>0.1221981451574502</v>
-      </c>
-      <c r="J9">
-        <v>0.1221981451574501</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.09374366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.281231</v>
-      </c>
-      <c r="O9">
-        <v>0.04157404575390553</v>
-      </c>
-      <c r="P9">
-        <v>0.04157404575390553</v>
-      </c>
-      <c r="Q9">
-        <v>15.78915497030156</v>
-      </c>
-      <c r="R9">
-        <v>142.102394732714</v>
-      </c>
-      <c r="S9">
-        <v>0.005080271277818223</v>
-      </c>
-      <c r="T9">
-        <v>0.005080271277818222</v>
+        <v>0.9365648635832198</v>
       </c>
     </row>
   </sheetData>
